--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1720,10 +1732,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1767,28 +1779,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1813,28 +1825,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1980,10 +1992,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2027,28 +2039,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2073,28 +2085,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2385,10 +2397,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2432,28 +2444,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2478,28 +2490,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2732,10 +2744,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2779,28 +2791,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2825,28 +2837,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3108,10 +3120,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3155,28 +3167,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3201,28 +3213,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3368,10 +3380,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3415,28 +3427,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3461,28 +3473,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3773,10 +3785,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3820,28 +3832,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3866,28 +3878,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4178,10 +4190,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4225,28 +4237,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4271,28 +4283,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4525,10 +4537,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4572,28 +4584,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4618,28 +4630,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4727,10 +4739,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4774,28 +4786,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4820,28 +4832,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4958,10 +4970,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5005,28 +5017,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5051,28 +5063,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5160,10 +5172,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5207,28 +5219,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5253,28 +5265,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5333,10 +5345,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5380,28 +5392,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5426,28 +5438,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5535,10 +5547,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5582,28 +5594,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5628,28 +5640,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5881,10 +5893,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5928,28 +5940,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5974,28 +5986,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6054,10 +6066,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6101,28 +6113,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6147,28 +6159,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6227,10 +6239,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
